--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1013</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.026</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
@@ -1725,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1837,12 +1837,99 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>253</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>45</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>253</v>
+      </c>
+      <c r="H6" t="n">
+        <v>45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>253</v>
+      </c>
+      <c r="H7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1857,7 +1944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1911,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1940,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1969,12 +2056,99 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>36.62</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.026</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>

--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -16,7 +16,6 @@
     <sheet name="ForcastedStandardDeviation" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Capacity" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="ProcessingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Network" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -162,36 +161,6 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,25 +534,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -16,6 +16,7 @@
     <sheet name="ForcastedStandardDeviation" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Capacity" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="ProcessingTime" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Network" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -161,6 +162,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,6 +565,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
